--- a/TestData/LoginData1.xlsx
+++ b/TestData/LoginData1.xlsx
@@ -426,7 +426,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
